--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>64d7680e-9d91-462a-8e47-45357ddf4009</t>
-  </si>
-  <si>
-    <t>Rutvik</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"0":-0.1573958545923233,"1":0.20558999478816986,"2":0.03379957377910614,"3":-0.09642171114683151,"4":-0.045875854790210724,"5":0.011853640899062157,"6":-0.04374321922659874,"7":-0.08421684056520462,"8":0.1483050286769867,"9":-0.011022786609828472,"10":0.3049607276916504,"11":0.03248358145356178,"12":-0.20404356718063354,"13":-0.060356881469488144,"14":-0.07248269766569138,"15":0.08613689243793488,"16":-0.21508996188640594,"17":-0.13607701659202576,"18":-0.06355015933513641,"19":-0.09695285558700562,"20":0.09304314851760864,"21":0.0601937398314476,"22":-0.03213932737708092,"23":0.06438037008047104,"24":-0.1875803917646408,"25":-0.2570257782936096,"26":-0.03919132053852081,"27":-0.05006091669201851,"28":0.16476212441921234,"29":-0.1156473308801651,"30":0.02560250461101532,"31":-0.034899841994047165,"32":-0.19754290580749512,"33":-0.04404262825846672,"34":0.03210131451487541,"35":0.0770135223865509,"36":0.009003380313515663,"37":-0.09453515708446503,"38":0.23748280107975006,"39":0.0009763751877471805,"40":-0.09850884228944778,"41":0.015138212591409683,"42":0.11270984262228012,"43":0.3498552739620209,"44":0.13308799266815186,"45":0.018230058252811432,"46":0.03410198912024498,"47":-0.05507413670420647,"48":0.09718763828277588,"49":-0.20656181871891022,"50":0.11417917907238007,"51":0.14290384948253632,"52":0.12450610846281052,"53":0.058716751635074615,"54":0.07020670175552368,"55":-0.22174468636512756,"56":0.010927240364253521,"57":0.1192346066236496,"58":-0.22683843970298767,"59":0.07765070348978043,"60":0.05552360787987709,"61":-0.02601933479309082,"62":-0.015134290792047977,"63":-0.03746800869703293,"64":0.19506166875362396,"65":0.09266804903745651,"66":-0.10895947366952896,"67":-0.17516252398490906,"68":0.147796630859375,"69":-0.11256876587867737,"70":-0.03842379152774811,"71":0.08727207779884338,"72":-0.06608492881059647,"73":-0.10920044779777527,"74":-0.295947402715683,"75":0.07737300544977188,"76":0.43840742111206055,"77":0.1551215797662735,"78":-0.16439837217330933,"79":0.06857956200838089,"80":-0.0506085641682148,"81":-0.07780731469392776,"82":0.08627337962388992,"83":0.007060840725898743,"84":-0.15853282809257507,"85":0.011480393819510937,"86":-0.1513044387102127,"87":0.0789920762181282,"88":0.19567565619945526,"89":0.10349506139755249,"90":-0.06976774334907532,"91":0.19278055429458618,"92":0.058726124465465546,"93":-0.03782518208026886,"94":0.07340174913406372,"95":0.084398053586483,"96":-0.17543773353099823,"97":-0.01408413890749216,"98":-0.10357654094696045,"99":-0.014655537903308868,"100":0.023747755214571953,"101":-0.055435001850128174,"102":0.02881172113120556,"103":0.16981661319732666,"104":-0.1725321114063263,"105":0.13209852576255798,"106":0.03848195821046829,"107":-0.03800371661782265,"108":-0.0495370551943779,"109":0.06164681538939476,"110":-0.11787670850753784,"111":-0.05350996181368828,"112":0.1154637560248375,"113":-0.27295100688934326,"114":0.15148749947547913,"115":0.11660392582416534,"116":0.07957696914672852,"117":0.15147221088409424,"118":0.12811705470085144,"119":0.03091786429286003,"120":0.038956061005592346,"121":0.012360864318907261,"122":-0.09640643000602722,"123":-0.09140694886445999,"124":-0.012426357716321945,"125":-0.08172554522752762,"126":0.156545028090477,"127":0.06739151477813721}</t>
+    <t>786d2daa-e19f-4a86-820f-4a6f1e51cf94</t>
+  </si>
+  <si>
+    <t>Dhaval</t>
+  </si>
+  <si>
+    <t>parmar@123gmail.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>{"0":-0.1445828527212143,"1":0.21377862989902496,"2":0.006636271718889475,"3":-0.09179689735174179,"4":-0.07631953805685043,"5":0.008652610704302788,"6":-0.0631292536854744,"7":-0.07732533663511276,"8":0.1565791815519333,"9":-0.032600037753582,"10":0.25955358147621155,"11":0.04050827398896217,"12":-0.21668657660484314,"13":-0.05196324363350868,"14":-0.09430703520774841,"15":0.09673237055540085,"16":-0.21418745815753937,"17":-0.14007118344306946,"18":-0.0892469733953476,"19":-0.12151726335287094,"20":0.0963364914059639,"21":0.08047357946634293,"22":-0.03023901954293251,"23":0.05088607966899872,"24":-0.19129277765750885,"25":-0.23140934109687805,"26":-0.024803219363093376,"27":-0.04421444237232208,"28":0.14215388894081116,"29":-0.10445193201303482,"30":0.04081019386649132,"31":-0.021601783111691475,"32":-0.22411000728607178,"33":-0.03482876345515251,"34":0.03096906654536724,"35":0.06550585478544235,"36":-0.0005404863622970879,"37":-0.10759895294904709,"38":0.23363180458545685,"39":0.023580623790621758,"40":-0.0851680338382721,"41":-0.012821572832763195,"42":0.10545766353607178,"43":0.32449451088905334,"44":0.1357380598783493,"45":-0.0005072049680165946,"46":0.02677443064749241,"47":-0.05856277048587799,"48":0.104035384953022,"49":-0.22530275583267212,"50":0.07870334386825562,"51":0.16815471649169922,"52":0.10256247967481613,"53":0.08674239367246628,"54":0.05129941180348396,"55":-0.21376198530197144,"56":0.050937406718730927,"57":0.1297442466020584,"58":-0.23561006784439087,"59":0.037970155477523804,"60":0.03940223529934883,"61":-0.049221642315387726,"62":-0.04766228795051575,"63":-0.029861053451895714,"64":0.2181551307439804,"65":0.10013978183269501,"66":-0.10427969694137573,"67":-0.17888501286506653,"68":0.15353728830814362,"69":-0.12399224191904068,"70":-0.054786693304777145,"71":0.07719425112009048,"72":-0.061062127351760864,"73":-0.0950419008731842,"74":-0.32148119807243347,"75":0.06364203989505768,"76":0.44591206312179565,"77":0.16381509602069855,"78":-0.13706372678279877,"79":0.08533329516649246,"80":-0.06272029131650925,"81":-0.07420635223388672,"82":0.06305316090583801,"83":0.004536517430096865,"84":-0.18047241866588593,"85":0.006036537699401379,"86":-0.12312749773263931,"87":0.09096366167068481,"88":0.20193161070346832,"89":0.09323093295097351,"90":-0.08501464873552322,"91":0.18432798981666565,"92":0.0746510699391365,"93":-0.04039961099624634,"94":0.07016642391681671,"95":0.05840642750263214,"96":-0.15331248939037323,"97":-0.044843338429927826,"98":-0.07934656739234924,"99":0.0010707589099183679,"100":0.021666614338755608,"101":-0.07604866474866867,"102":0.014521725475788116,"103":0.16328731179237366,"104":-0.1735868752002716,"105":0.12300507724285126,"106":0.03763708844780922,"107":-0.06214773654937744,"108":-0.06554162502288818,"109":0.03740191087126732,"110":-0.13092410564422607,"111":-0.04271770268678665,"112":0.11162279546260834,"113":-0.2758257985115051,"114":0.17721863090991974,"115":0.11729765683412552,"116":0.08173863589763641,"117":0.17052863538265228,"118":0.1303871124982834,"119":0.037894438952207565,"120":0.019977377727627754,"121":0.009462802670896053,"122":-0.08034594357013702,"123":-0.1224500983953476,"124":0.0032702747266739607,"125":-0.06974450498819351,"126":0.15158091485500336,"127":0.06215290725231171}</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
